--- a/data/trans_orig/P36_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D816CAB1-8C3D-48CA-8727-E9B8A2DA3F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8DC4D0D-5C92-46F2-A518-292BC19474C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF394DAF-D642-4ACD-A659-920A18D5AFF2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4ACDD6F1-5FB9-412D-A96A-5F8D49DE06F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población con una adherencia baja a la dieta mediterránea en 2023 (Tasa respuesta: 94,27%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>49,5%</t>
   </si>
   <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
   </si>
   <si>
     <t>52,92%</t>
   </si>
   <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
   </si>
   <si>
     <t>51,25%</t>
   </si>
   <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
   </si>
   <si>
     <t>0.0</t>
@@ -104,28 +104,28 @@
     <t>50,5%</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
   </si>
   <si>
     <t>47,08%</t>
   </si>
   <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
   </si>
   <si>
     <t>48,75%</t>
   </si>
   <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>83,3%</t>
   </si>
   <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>82,08%</t>
   </si>
   <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
   </si>
   <si>
     <t>16,7%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
   </si>
   <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>53,17%</t>
   </si>
   <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
   </si>
   <si>
     <t>50,38%</t>
   </si>
   <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
   </si>
   <si>
     <t>51,67%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
   </si>
   <si>
     <t>46,83%</t>
   </si>
   <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
   </si>
   <si>
     <t>49,62%</t>
   </si>
   <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
   </si>
   <si>
     <t>48,33%</t>
   </si>
   <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>46,84%</t>
   </si>
   <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
   </si>
   <si>
     <t>54,75%</t>
   </si>
   <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,25 +308,25 @@
     <t>66,97%</t>
   </si>
   <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
   </si>
   <si>
     <t>58,9%</t>
   </si>
   <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
   </si>
   <si>
     <t>62,59%</t>
   </si>
   <si>
-    <t>58,74%</t>
+    <t>58,39%</t>
   </si>
   <si>
     <t>66,15%</t>
@@ -335,19 +335,19 @@
     <t>33,03%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
   </si>
   <si>
     <t>37,41%</t>
@@ -356,7 +356,7 @@
     <t>33,85%</t>
   </si>
   <si>
-    <t>41,26%</t>
+    <t>41,61%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>68,08%</t>
   </si>
   <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>78,99%</t>
   </si>
   <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
   </si>
   <si>
     <t>31,92%</t>
   </si>
   <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
   </si>
   <si>
     <t>21,01%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
   </si>
   <si>
     <t>26,48%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,49 +422,55 @@
     <t>52,95%</t>
   </si>
   <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
   </si>
   <si>
     <t>45,16%</t>
   </si>
   <si>
-    <t>25,93%</t>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
   </si>
   <si>
     <t>48,53%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
   </si>
   <si>
     <t>47,05%</t>
   </si>
   <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
   </si>
   <si>
     <t>54,84%</t>
   </si>
   <si>
-    <t>74,07%</t>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
   </si>
   <si>
     <t>51,47%</t>
   </si>
   <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,79 +479,79 @@
     <t>89,72%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
   <si>
     <t>88,76%</t>
   </si>
   <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
   </si>
   <si>
     <t>66,63%</t>
   </si>
   <si>
-    <t>62,85%</t>
+    <t>63,03%</t>
   </si>
   <si>
     <t>68,28%</t>
@@ -554,19 +560,19 @@
     <t>31,53%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>33,37%</t>
@@ -575,7 +581,7 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>37,15%</t>
+    <t>36,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4923DC62-FE36-48FA-9ECC-9DF8AFE7D942}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB35C9F0-64FF-4949-BC7E-D7F001AB6A79}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2065,7 +2071,7 @@
         <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>755</v>
@@ -2074,13 +2080,13 @@
         <v>662017</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2101,13 @@
         <v>277292</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>449</v>
@@ -2110,13 +2116,13 @@
         <v>424909</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>728</v>
@@ -2125,13 +2131,13 @@
         <v>702201</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2193,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2205,13 @@
         <v>755772</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>933</v>
@@ -2214,13 +2220,13 @@
         <v>758636</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1602</v>
@@ -2229,13 +2235,13 @@
         <v>1514409</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2256,13 @@
         <v>86584</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>114</v>
@@ -2265,13 +2271,13 @@
         <v>96079</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>191</v>
@@ -2280,13 +2286,13 @@
         <v>182662</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2360,13 @@
         <v>2156722</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>3339</v>
@@ -2369,28 +2375,28 @@
         <v>2334484</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>5453</v>
       </c>
       <c r="N28" s="7">
-        <v>4491206</v>
+        <v>4491205</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2411,13 @@
         <v>993204</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1726</v>
@@ -2420,13 +2426,13 @@
         <v>1256032</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>2789</v>
@@ -2435,13 +2441,13 @@
         <v>2249236</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2489,7 @@
         <v>8242</v>
       </c>
       <c r="N30" s="7">
-        <v>6740442</v>
+        <v>6740441</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36_R2-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8DC4D0D-5C92-46F2-A518-292BC19474C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3380481-910B-42AC-8212-4559D85D5F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4ACDD6F1-5FB9-412D-A96A-5F8D49DE06F1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E221EF8-D4D0-47CE-A6F2-6E098F6A4204}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB35C9F0-64FF-4949-BC7E-D7F001AB6A79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466DAE5A-00A6-418A-A269-5F6F89F5AF7F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
